--- a/Template_Data_Aquisition.xlsx
+++ b/Template_Data_Aquisition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\Code_Projects\MSc_Geomatics\Advanced_GIS\Assingment_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816FB4CB-BC53-4B97-BCBF-F6E5FE461D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115FC536-2EF0-44EA-B3A0-1486B963EB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19380" windowHeight="15585" xr2:uid="{FCFBAC13-EB82-401F-887A-9C0F8F981DF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FCFBAC13-EB82-401F-887A-9C0F8F981DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>1_Participant_ID</t>
   </si>
@@ -53,137 +53,182 @@
     <t>5_Motivation</t>
   </si>
   <si>
-    <t>6_Find_page_land</t>
-  </si>
-  <si>
-    <t>7_Success_land</t>
-  </si>
-  <si>
-    <t>13_Find_page_city</t>
-  </si>
-  <si>
-    <t>8_Difficulty_land</t>
-  </si>
-  <si>
-    <t>9_Interface_land</t>
-  </si>
-  <si>
-    <t>10_Map_colors_land</t>
-  </si>
-  <si>
-    <t>11_Buttons_land</t>
-  </si>
-  <si>
-    <t>12_Style_land</t>
-  </si>
-  <si>
-    <t>14_Success_city</t>
-  </si>
-  <si>
-    <t>15_Difficulty_city</t>
-  </si>
-  <si>
-    <t>16_Interface_city</t>
-  </si>
-  <si>
-    <t>17_Map_colors_city</t>
-  </si>
-  <si>
-    <t>18_Buttons_city</t>
-  </si>
-  <si>
-    <t>19_Style_city</t>
-  </si>
-  <si>
-    <t>21_completion_task</t>
-  </si>
-  <si>
-    <t>20_understanding_task</t>
-  </si>
-  <si>
-    <t>22_Satisfaction</t>
-  </si>
-  <si>
-    <t>23_1_readability</t>
-  </si>
-  <si>
-    <t>23_2_clear</t>
-  </si>
-  <si>
-    <t>23_3_interactive</t>
-  </si>
-  <si>
-    <t>23_4_information</t>
-  </si>
-  <si>
-    <t>23_5_learning</t>
-  </si>
-  <si>
-    <t>23_6_exploration</t>
-  </si>
-  <si>
-    <t>23_7_names</t>
-  </si>
-  <si>
-    <t>23_8_material</t>
-  </si>
-  <si>
-    <t>23_9_interesting</t>
-  </si>
-  <si>
-    <t>23_10_mental</t>
-  </si>
-  <si>
-    <t>23_11_task</t>
-  </si>
-  <si>
-    <t>23_12_pressure</t>
-  </si>
-  <si>
-    <t>23_13_rapid</t>
-  </si>
-  <si>
-    <t>23_14_success</t>
-  </si>
-  <si>
-    <t>23_15_satisfaction</t>
-  </si>
-  <si>
-    <t>23_16_work</t>
-  </si>
-  <si>
-    <t>23_17_insecure</t>
-  </si>
-  <si>
-    <t>24_Comments</t>
-  </si>
-  <si>
-    <t>23_Best</t>
-  </si>
-  <si>
-    <t>25_Time_needed_land</t>
-  </si>
-  <si>
-    <t>26_Time_needed_city</t>
-  </si>
-  <si>
-    <t>27_Time_needed_find_website</t>
-  </si>
-  <si>
-    <t>28_Time_needed_find_website</t>
+    <t>6_German</t>
+  </si>
+  <si>
+    <t>7_time_page_land</t>
+  </si>
+  <si>
+    <t>8_first_hint_land</t>
+  </si>
+  <si>
+    <t>9_Difficulty_land</t>
+  </si>
+  <si>
+    <t>10_Interface_land</t>
+  </si>
+  <si>
+    <t>11_Readability</t>
+  </si>
+  <si>
+    <t>12_Map_colors_land</t>
+  </si>
+  <si>
+    <t>13_Buttons_land</t>
+  </si>
+  <si>
+    <t>14_Style_land</t>
+  </si>
+  <si>
+    <t>15_time_page_city</t>
+  </si>
+  <si>
+    <t>16_first_hint_city</t>
+  </si>
+  <si>
+    <t>17_Difficulty_city</t>
+  </si>
+  <si>
+    <t>18_Interface_city</t>
+  </si>
+  <si>
+    <t>19_Readability</t>
+  </si>
+  <si>
+    <t>20_Map_colors_city</t>
+  </si>
+  <si>
+    <t>21_Buttons_city</t>
+  </si>
+  <si>
+    <t>22_Style_city</t>
+  </si>
+  <si>
+    <t>23_understanding_task</t>
+  </si>
+  <si>
+    <t>24_completion_land</t>
+  </si>
+  <si>
+    <t>24_completion_city</t>
+  </si>
+  <si>
+    <t>26_help_land</t>
+  </si>
+  <si>
+    <t>27_help_city</t>
+  </si>
+  <si>
+    <t>28_time_land</t>
+  </si>
+  <si>
+    <t>29_time_city</t>
+  </si>
+  <si>
+    <t>30_Satisfaction</t>
+  </si>
+  <si>
+    <t>31_Best</t>
+  </si>
+  <si>
+    <t>31_1_readability_land</t>
+  </si>
+  <si>
+    <t>31_2_clear_land</t>
+  </si>
+  <si>
+    <t>31_3_interactive_land</t>
+  </si>
+  <si>
+    <t>31_4_learning_land</t>
+  </si>
+  <si>
+    <t>31_5_exploration_land</t>
+  </si>
+  <si>
+    <t>31_6_names_land</t>
+  </si>
+  <si>
+    <t>31_7_material_land</t>
+  </si>
+  <si>
+    <t>31_8_interest_land</t>
+  </si>
+  <si>
+    <t>31_9_mental_land</t>
+  </si>
+  <si>
+    <t>31_10_pressure_land</t>
+  </si>
+  <si>
+    <t>31_11_success_land</t>
+  </si>
+  <si>
+    <t>31_12_satisfaction_land</t>
+  </si>
+  <si>
+    <t>31_13_insecure_land</t>
+  </si>
+  <si>
+    <t>31_14_readability_city</t>
+  </si>
+  <si>
+    <t>31_15_clear_city</t>
+  </si>
+  <si>
+    <t>31_16_interactive_city</t>
+  </si>
+  <si>
+    <t>31_17_learning_city</t>
+  </si>
+  <si>
+    <t>31_18_exploration_city</t>
+  </si>
+  <si>
+    <t>31_19_names_city</t>
+  </si>
+  <si>
+    <t>31_20_material_city</t>
+  </si>
+  <si>
+    <t>31_21_interest_city</t>
+  </si>
+  <si>
+    <t>31_22_mental_city</t>
+  </si>
+  <si>
+    <t>31_23_pressure_city</t>
+  </si>
+  <si>
+    <t>31_24_success_city</t>
+  </si>
+  <si>
+    <t>31_25_satisfaction_city</t>
+  </si>
+  <si>
+    <t>31_26_insecure_city</t>
+  </si>
+  <si>
+    <t>32_Comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,8 +251,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -522,19 +568,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCCDDB1-6567-41EF-835C-7E672D7863A6}">
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:BF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+    <col min="21" max="21" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,22 +603,22 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
@@ -593,70 +639,70 @@
         <v>18</v>
       </c>
       <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
         <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
         <v>40</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>39</v>
       </c>
       <c r="AP1" t="s">
         <v>41</v>
@@ -670,6 +716,275 @@
       <c r="AS1" t="s">
         <v>44</v>
       </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+    </row>
+    <row r="33" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+    </row>
+    <row r="34" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+    </row>
+    <row r="35" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+    </row>
+    <row r="36" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+    </row>
+    <row r="37" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+    </row>
+    <row r="38" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+    </row>
+    <row r="39" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+    </row>
+    <row r="40" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+    </row>
+    <row r="41" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+    </row>
+    <row r="42" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+    </row>
+    <row r="43" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+    </row>
+    <row r="44" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+    </row>
+    <row r="45" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+    </row>
+    <row r="46" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+    </row>
+    <row r="47" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+    </row>
+    <row r="48" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+    </row>
+    <row r="49" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+    </row>
+    <row r="50" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+    </row>
+    <row r="51" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+    </row>
+    <row r="52" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+    </row>
+    <row r="53" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+    </row>
+    <row r="54" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+    </row>
+    <row r="55" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+    </row>
+    <row r="56" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+    </row>
+    <row r="57" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+    </row>
+    <row r="58" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+    </row>
+    <row r="59" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
